--- a/Output_Data/Resultados_modelospredictivos.xlsx
+++ b/Output_Data/Resultados_modelospredictivos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\2_PROYECTOS\RETIME\Prediccion temperatura\Indoor_temp_prediction\Output_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F071A4EF-5F10-4A1F-B5B4-2AC4408FB1D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E78EB9-B21F-4454-B561-92903FD9A1DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{B7EF7CF8-6BA5-413F-81BD-0A19CD629653}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" xr2:uid="{B7EF7CF8-6BA5-413F-81BD-0A19CD629653}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>MSE</t>
   </si>
@@ -45,18 +45,6 @@
     <t>RandomForest</t>
   </si>
   <si>
-    <t>7.911251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.516834 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.58789 </t>
-  </si>
-  <si>
-    <t>0.997</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -64,6 +52,30 @@
   </si>
   <si>
     <t>70% train / 30% test (random)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7136066 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5599084 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1375434 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3708685 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2908313 </t>
+  </si>
+  <si>
+    <t>0.9971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5092343 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9891682 </t>
   </si>
 </sst>
 </file>
@@ -92,12 +104,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -127,12 +145,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,7 +469,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -461,28 +480,28 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -491,26 +510,34 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
